--- a/PL/assignment_2/resultados/shallowNets.xlsx
+++ b/PL/assignment_2/resultados/shallowNets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\Desktop\Mestrado\Masters\Masters-ML\PL\assignment_2\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255B4C98-2C4F-4168-9138-2269F6A987E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC277367-ED87-4DDF-95B7-E62235CD9069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5FE3932E-7059-48B8-8EB9-0301D4D020C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5FE3932E-7059-48B8-8EB9-0301D4D020C3}"/>
   </bookViews>
   <sheets>
     <sheet name="44202" sheetId="1" r:id="rId1"/>
@@ -257,9 +257,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -268,6 +265,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F900E1E-A7AF-4F46-80FA-0B9074046CD1}">
   <dimension ref="A1:V152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,59 +614,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4" t="s">
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="4"/>
+      <c r="S1" s="7"/>
       <c r="T1" s="2" t="s">
         <v>22</v>
       </c>
@@ -675,21 +675,21 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
       <c r="P2" s="2" t="s">
         <v>15</v>
       </c>
@@ -1129,7 +1129,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="1">
@@ -4393,6 +4393,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="N1:N2"/>
@@ -4405,11 +4410,6 @@
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4419,8 +4419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C20513-0CA4-445E-BF46-0CEBEDD057CA}">
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4444,82 +4444,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4" t="s">
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4" t="s">
+      <c r="S1" s="7"/>
+      <c r="T1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
       <c r="P2" s="2" t="s">
         <v>15</v>
       </c>
@@ -4532,12 +4532,12 @@
       <c r="S2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>63502</v>
       </c>
       <c r="C3" s="2"/>
@@ -4578,13 +4578,13 @@
       <c r="T3" s="2">
         <v>1000</v>
       </c>
-      <c r="U3" s="6">
+      <c r="U3" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>63502</v>
       </c>
       <c r="C4" s="2"/>
@@ -4627,13 +4627,13 @@
       <c r="T4" s="2">
         <v>1000</v>
       </c>
-      <c r="U4" s="6">
+      <c r="U4" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>63502</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -4678,13 +4678,13 @@
       <c r="T5" s="2">
         <v>1000</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>63502</v>
       </c>
       <c r="C6" s="2"/>
@@ -4727,13 +4727,13 @@
       <c r="T6" s="2">
         <v>1000</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>63502</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -4780,13 +4780,13 @@
       <c r="T7" s="2">
         <v>1000</v>
       </c>
-      <c r="U7" s="6">
+      <c r="U7" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>63502</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -4829,13 +4829,13 @@
       <c r="T8" s="2">
         <v>1000</v>
       </c>
-      <c r="U8" s="6">
+      <c r="U8" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>63502</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -4882,13 +4882,13 @@
       <c r="T9" s="2">
         <v>1000</v>
       </c>
-      <c r="U9" s="6">
+      <c r="U9" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>63502</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -4931,13 +4931,13 @@
       <c r="T10" s="2">
         <v>1000</v>
       </c>
-      <c r="U10" s="6">
+      <c r="U10" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>63502</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -4984,13 +4984,13 @@
       <c r="T11" s="2">
         <v>1000</v>
       </c>
-      <c r="U11" s="6">
+      <c r="U11" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>63502</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -5035,19 +5035,12 @@
       <c r="T12" s="2">
         <v>1000</v>
       </c>
-      <c r="U12" s="6">
+      <c r="U12" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -5060,6 +5053,13 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PL/assignment_2/resultados/shallowNets.xlsx
+++ b/PL/assignment_2/resultados/shallowNets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\Desktop\Mestrado\Masters\Masters-ML\PL\assignment_2\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC277367-ED87-4DDF-95B7-E62235CD9069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DB3F18-E052-4F6B-A4E7-D0F19C0F7E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5FE3932E-7059-48B8-8EB9-0301D4D020C3}"/>
+    <workbookView xWindow="1920" yWindow="1515" windowWidth="23160" windowHeight="14445" xr2:uid="{5FE3932E-7059-48B8-8EB9-0301D4D020C3}"/>
   </bookViews>
   <sheets>
     <sheet name="44202" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -193,6 +193,21 @@
   </si>
   <si>
     <t>44202_AUTO_BEW_FF_2L_10HN_trainlm_logsig_tansig_softmax.mat</t>
+  </si>
+  <si>
+    <t>N. Layers</t>
+  </si>
+  <si>
+    <t>N. Hidden Neurons</t>
+  </si>
+  <si>
+    <t>Act. Func 1</t>
+  </si>
+  <si>
+    <t>Act. Func 2</t>
+  </si>
+  <si>
+    <t>Act. Func 3</t>
   </si>
 </sst>
 </file>
@@ -586,7 +601,7 @@
   <dimension ref="A1:V152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,19 +657,19 @@
         <v>7</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>24</v>
@@ -4393,11 +4408,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="N1:N2"/>
@@ -4410,6 +4420,11 @@
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5041,6 +5056,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -5053,13 +5075,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PL/assignment_2/resultados/shallowNets.xlsx
+++ b/PL/assignment_2/resultados/shallowNets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\Desktop\Mestrado\Masters\Masters-ML\PL\assignment_2\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D19658D-E307-4365-BEBA-B74F0B8C2E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0537E037-3B73-4F30-8DBB-E24D9942BDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5FE3932E-7059-48B8-8EB9-0301D4D020C3}"/>
   </bookViews>
@@ -547,13 +547,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -878,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F900E1E-A7AF-4F46-80FA-0B9074046CD1}">
   <dimension ref="A1:Z153"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:S1"/>
+    <sheetView topLeftCell="K1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,49 +908,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="10" t="s">
         <v>24</v>
       </c>
       <c r="P1" s="13" t="s">
@@ -967,37 +967,37 @@
       <c r="W1" s="13"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12" t="s">
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12" t="s">
+      <c r="S2" s="10"/>
+      <c r="T2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12" t="s">
+      <c r="U2" s="10"/>
+      <c r="V2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="12"/>
+      <c r="W2" s="10"/>
       <c r="X2" s="11" t="s">
         <v>22</v>
       </c>
@@ -1006,21 +1006,21 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
       <c r="P3" s="1" t="s">
         <v>15</v>
       </c>
@@ -2013,8 +2013,8 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -5013,30 +5013,30 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="O1:O3"/>
     <mergeCell ref="Y2:Y3"/>
     <mergeCell ref="P17:Q17"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="X2:X3"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5046,7 +5046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C20513-0CA4-445E-BF46-0CEBEDD057CA}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
@@ -5076,46 +5076,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="10" t="s">
         <v>24</v>
       </c>
       <c r="O1" s="13" t="s">
@@ -5130,63 +5130,63 @@
       <c r="T1" s="13"/>
       <c r="U1" s="13"/>
       <c r="V1" s="13"/>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
+      <c r="A2" s="10"/>
       <c r="B2" s="14"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="10" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10" t="s">
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="10"/>
-      <c r="S2" s="12" t="s">
+      <c r="R2" s="12"/>
+      <c r="S2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12" t="s">
+      <c r="T2" s="10"/>
+      <c r="U2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="12"/>
     </row>
     <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="14"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
       <c r="O3" s="5" t="s">
         <v>15</v>
       </c>
@@ -5211,9 +5211,9 @@
       <c r="V3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="12"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -5687,6 +5687,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="N1:N3"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="L1:L3"/>
     <mergeCell ref="K1:K3"/>
@@ -5700,16 +5710,6 @@
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="J1:J3"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:X3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PL/assignment_2/resultados/shallowNets.xlsx
+++ b/PL/assignment_2/resultados/shallowNets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\Desktop\Mestrado\Masters\Masters-ML\PL\assignment_2\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0537E037-3B73-4F30-8DBB-E24D9942BDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1F3CB4-2419-4CF4-889F-034A4F2DBA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5FE3932E-7059-48B8-8EB9-0301D4D020C3}"/>
   </bookViews>
@@ -282,21 +282,9 @@
     <t>0.2733</t>
   </si>
   <si>
-    <t>0.7446</t>
-  </si>
-  <si>
     <t>0.5480</t>
   </si>
   <si>
-    <t>0.9975</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0879</t>
-  </si>
-  <si>
-    <t>0.8741</t>
-  </si>
-  <si>
     <t>0.5667</t>
   </si>
   <si>
@@ -457,6 +445,18 @@
   </si>
   <si>
     <t>0.8697</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7446</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9975</t>
+  </si>
+  <si>
+    <t>0.0879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.8741</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -504,6 +504,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -548,6 +560,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -557,10 +572,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -878,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F900E1E-A7AF-4F46-80FA-0B9074046CD1}">
   <dimension ref="A1:Z153"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6:S6"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12:W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,119 +938,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13" t="s">
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10" t="s">
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10" t="s">
+      <c r="S2" s="11"/>
+      <c r="T2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10" t="s">
+      <c r="U2" s="11"/>
+      <c r="V2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="10"/>
-      <c r="X2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y2" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="W2" s="11"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
       <c r="P3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1045,8 +1077,8 @@
       <c r="W3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -1264,73 +1296,73 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="16">
         <v>44202</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
+      <c r="E7" s="15"/>
+      <c r="F7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6">
+      <c r="I7" s="15"/>
+      <c r="J7" s="15">
         <v>3</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="15">
         <v>10</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="P7" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="Q7" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="R7" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="R7" s="6" t="s">
+      <c r="S7" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="T7" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="U7" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="V7" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="S7" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="U7" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="V7" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="W7" s="6">
+      <c r="W7" s="20">
         <v>1</v>
       </c>
-      <c r="X7" s="6">
+      <c r="X7" s="15">
         <v>1000</v>
       </c>
-      <c r="Y7" s="7">
+      <c r="Y7" s="17">
         <v>9.9999999999999995E-8</v>
       </c>
     </row>
@@ -1382,22 +1414,22 @@
         <v>1</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="T8" s="6">
         <v>1</v>
       </c>
       <c r="U8" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="V8" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="W8" s="6">
         <v>1</v>
@@ -1410,148 +1442,148 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="16">
         <v>44202</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6">
+      <c r="I9" s="15"/>
+      <c r="J9" s="15">
         <v>1</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="15">
         <v>10</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6" t="s">
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="15">
         <v>1</v>
       </c>
-      <c r="Q9" s="6" t="s">
+      <c r="Q9" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="R9" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="S9" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="T9" s="15">
+        <v>1</v>
+      </c>
+      <c r="U9" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="V9" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="W9" s="20">
+        <v>1</v>
+      </c>
+      <c r="X9" s="15">
+        <v>1000</v>
+      </c>
+      <c r="Y9" s="17">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="16">
+        <v>44202</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15">
+        <v>3</v>
+      </c>
+      <c r="K10" s="15">
+        <v>10</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q10" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="R9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="S9" s="6" t="s">
+      <c r="R10" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="S10" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T10" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="U10" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="V10" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="W10" s="20">
         <v>1</v>
       </c>
-      <c r="U9" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="V9" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="W9" s="6">
-        <v>1</v>
-      </c>
-      <c r="X9" s="6">
+      <c r="X10" s="15">
         <v>1000</v>
       </c>
-      <c r="Y9" s="7">
-        <v>9.9999999999999995E-8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="8">
-        <v>44202</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6">
-        <v>3</v>
-      </c>
-      <c r="K10" s="6">
-        <v>10</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="R10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="T10" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="U10" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="V10" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="W10" s="6">
-        <v>1</v>
-      </c>
-      <c r="X10" s="6">
-        <v>1000</v>
-      </c>
-      <c r="Y10" s="7">
+      <c r="Y10" s="17">
         <v>9.9999999999999995E-8</v>
       </c>
     </row>
@@ -1611,10 +1643,10 @@
         <v>1</v>
       </c>
       <c r="U11" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="V11" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="W11" s="6">
         <v>1</v>
@@ -1627,77 +1659,77 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="16">
         <v>44202</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6">
+      <c r="I12" s="15"/>
+      <c r="J12" s="15">
         <v>3</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="15">
         <v>10</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="M12" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="N12" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="O12" s="6" t="s">
+      <c r="O12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="P12" s="6" t="s">
+      <c r="P12" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Q12" s="6" t="s">
+      <c r="Q12" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="R12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="S12" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="T12" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="U12" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="V12" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="R12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S12" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="T12" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="U12" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="V12" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="W12" s="6">
+      <c r="W12" s="20">
         <v>1</v>
       </c>
-      <c r="X12" s="6">
+      <c r="X12" s="15">
         <v>1000</v>
       </c>
-      <c r="Y12" s="7">
+      <c r="Y12" s="17">
         <v>9.9999999999999995E-8</v>
       </c>
     </row>
@@ -1747,7 +1779,7 @@
         <v>1</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="R13" s="6" t="s">
         <v>33</v>
@@ -1759,10 +1791,10 @@
         <v>1</v>
       </c>
       <c r="U13" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="V13" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="W13" s="6">
         <v>1</v>
@@ -1825,22 +1857,22 @@
         <v>54</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="S14" s="6" t="s">
         <v>55</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="V14" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W14" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="X14" s="6">
         <v>100</v>
@@ -1892,28 +1924,28 @@
         <v>25</v>
       </c>
       <c r="P15" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="T15" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="Q15" s="6" t="s">
+      <c r="U15" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="R15" s="6" t="s">
+      <c r="V15" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="S15" s="6" t="s">
+      <c r="W15" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="T15" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="U15" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="V15" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="W15" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="X15" s="6">
         <v>100</v>
@@ -1970,7 +2002,7 @@
         <v>61</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="R16" s="6" t="s">
         <v>62</v>
@@ -1979,16 +2011,16 @@
         <v>63</v>
       </c>
       <c r="T16" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="U16" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="V16" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="W16" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="X16" s="6">
         <v>100</v>
@@ -2013,8 +2045,8 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -5013,6 +5045,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="Y1:Y3"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="T1:W1"/>
     <mergeCell ref="V2:W2"/>
@@ -5021,22 +5069,6 @@
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="N1:N3"/>
     <mergeCell ref="O1:O3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="J1:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5046,8 +5078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C20513-0CA4-445E-BF46-0CEBEDD057CA}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5076,117 +5108,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13" t="s">
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="10" t="s">
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
+      <c r="A2" s="11"/>
       <c r="B2" s="14"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="12" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12" t="s">
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="12"/>
-      <c r="S2" s="10" t="s">
+      <c r="R2" s="13"/>
+      <c r="S2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10" t="s">
+      <c r="T2" s="11"/>
+      <c r="U2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="12"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="13"/>
     </row>
     <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="14"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
       <c r="O3" s="5" t="s">
         <v>15</v>
       </c>
@@ -5211,9 +5243,9 @@
       <c r="V3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="12"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="13"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -5289,70 +5321,70 @@
       <c r="Y4" s="3"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="18">
         <v>44202</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1">
+      <c r="H5" s="18"/>
+      <c r="I5" s="18">
         <v>1</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="18">
         <v>10</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1" t="s">
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="S5" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="U5" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="V5" s="6">
+      <c r="S5" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="T5" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="U5" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="V5" s="15">
         <v>1</v>
       </c>
-      <c r="W5" s="1">
+      <c r="W5" s="18">
         <v>10</v>
       </c>
-      <c r="X5" s="3">
+      <c r="X5" s="19">
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="Y5" s="3"/>
@@ -5468,28 +5500,28 @@
         <v>25</v>
       </c>
       <c r="O7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="S7" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="T7" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="U7" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="V7" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="U7" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="V7" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="W7" s="1">
         <v>10</v>
@@ -5687,15 +5719,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:X3"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="S2:T2"/>
     <mergeCell ref="N1:N3"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="L1:L3"/>
@@ -5710,6 +5733,15 @@
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="J1:J3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PL/assignment_2/resultados/shallowNets.xlsx
+++ b/PL/assignment_2/resultados/shallowNets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\Desktop\Mestrado\Masters\Masters-ML\PL\assignment_2\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1F3CB4-2419-4CF4-889F-034A4F2DBA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1424202-34D8-4A1B-84A4-1D72E4DA8C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5FE3932E-7059-48B8-8EB9-0301D4D020C3}"/>
   </bookViews>
@@ -532,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -559,21 +559,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -590,6 +575,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -909,7 +912,7 @@
   <dimension ref="A1:Z153"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12:W12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,121 +941,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10" t="s">
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="12" t="s">
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11" t="s">
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11" t="s">
+      <c r="S2" s="16"/>
+      <c r="T2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11" t="s">
+      <c r="U2" s="16"/>
+      <c r="V2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="11"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
       <c r="P3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1077,8 +1080,8 @@
       <c r="W3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -1299,7 +1302,7 @@
       <c r="A7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="21">
         <v>44202</v>
       </c>
       <c r="C7" s="15"/>
@@ -1341,10 +1344,10 @@
       <c r="Q7" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="R7" s="20" t="s">
+      <c r="R7" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="S7" s="20" t="s">
+      <c r="S7" s="15" t="s">
         <v>137</v>
       </c>
       <c r="T7" s="15" t="s">
@@ -1353,16 +1356,16 @@
       <c r="U7" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="V7" s="20" t="s">
+      <c r="V7" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="W7" s="20">
+      <c r="W7" s="15">
         <v>1</v>
       </c>
-      <c r="X7" s="15">
+      <c r="X7" s="10">
         <v>1000</v>
       </c>
-      <c r="Y7" s="17">
+      <c r="Y7" s="12">
         <v>9.9999999999999995E-8</v>
       </c>
     </row>
@@ -1442,148 +1445,148 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="11">
         <v>44202</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15">
+      <c r="I9" s="10"/>
+      <c r="J9" s="10">
         <v>1</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="10">
         <v>10</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="L9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15" t="s">
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="P9" s="15">
+      <c r="P9" s="10">
         <v>1</v>
       </c>
-      <c r="Q9" s="15" t="s">
+      <c r="Q9" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="R9" s="20" t="s">
+      <c r="R9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="S9" s="20" t="s">
+      <c r="S9" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="T9" s="15">
+      <c r="T9" s="10">
         <v>1</v>
       </c>
-      <c r="U9" s="15" t="s">
+      <c r="U9" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="V9" s="20" t="s">
+      <c r="V9" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="W9" s="20">
+      <c r="W9" s="15">
         <v>1</v>
       </c>
-      <c r="X9" s="15">
+      <c r="X9" s="10">
         <v>1000</v>
       </c>
-      <c r="Y9" s="17">
+      <c r="Y9" s="12">
         <v>9.9999999999999995E-8</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="11">
         <v>44202</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15">
+      <c r="I10" s="10"/>
+      <c r="J10" s="10">
         <v>3</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="10">
         <v>10</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="M10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="N10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O10" s="15" t="s">
+      <c r="O10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="P10" s="15" t="s">
+      <c r="P10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="Q10" s="15" t="s">
+      <c r="Q10" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="R10" s="20" t="s">
+      <c r="R10" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="S10" s="20" t="s">
+      <c r="S10" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="T10" s="15" t="s">
+      <c r="T10" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="U10" s="15" t="s">
+      <c r="U10" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="V10" s="20" t="s">
+      <c r="V10" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W10" s="20">
+      <c r="W10" s="15">
         <v>1</v>
       </c>
-      <c r="X10" s="15">
+      <c r="X10" s="10">
         <v>1000</v>
       </c>
-      <c r="Y10" s="17">
+      <c r="Y10" s="12">
         <v>9.9999999999999995E-8</v>
       </c>
     </row>
@@ -1659,77 +1662,77 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="11">
         <v>44202</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15">
+      <c r="I12" s="10"/>
+      <c r="J12" s="10">
         <v>3</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="10">
         <v>10</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="L12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="M12" s="15" t="s">
+      <c r="M12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="N12" s="15" t="s">
+      <c r="N12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="O12" s="15" t="s">
+      <c r="O12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="P12" s="15" t="s">
+      <c r="P12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="Q12" s="15" t="s">
+      <c r="Q12" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="R12" s="20" t="s">
+      <c r="R12" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="S12" s="20" t="s">
+      <c r="S12" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="T12" s="15" t="s">
+      <c r="T12" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="U12" s="15" t="s">
+      <c r="U12" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="V12" s="20" t="s">
+      <c r="V12" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="W12" s="20">
+      <c r="W12" s="15">
         <v>1</v>
       </c>
-      <c r="X12" s="15">
+      <c r="X12" s="10">
         <v>1000</v>
       </c>
-      <c r="Y12" s="17">
+      <c r="Y12" s="12">
         <v>9.9999999999999995E-8</v>
       </c>
     </row>
@@ -2045,8 +2048,8 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -5045,21 +5048,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="X1:X3"/>
     <mergeCell ref="Y1:Y3"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="T1:W1"/>
@@ -5069,6 +5057,21 @@
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="N1:N3"/>
     <mergeCell ref="O1:O3"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5078,7 +5081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C20513-0CA4-445E-BF46-0CEBEDD057CA}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -5108,117 +5111,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10" t="s">
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="11" t="s">
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="X1" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="13" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13" t="s">
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="13"/>
-      <c r="S2" s="11" t="s">
+      <c r="R2" s="17"/>
+      <c r="S2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11" t="s">
+      <c r="T2" s="16"/>
+      <c r="U2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="13"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="17"/>
     </row>
     <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
       <c r="O3" s="5" t="s">
         <v>15</v>
       </c>
@@ -5243,9 +5246,9 @@
       <c r="V3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="13"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="17"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -5321,70 +5324,70 @@
       <c r="Y4" s="3"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="13">
         <v>44202</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18">
+      <c r="H5" s="13"/>
+      <c r="I5" s="13">
         <v>1</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="13">
         <v>10</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18" t="s">
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="18" t="s">
+      <c r="O5" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="P5" s="18" t="s">
+      <c r="P5" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="Q5" s="18" t="s">
+      <c r="Q5" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="R5" s="18" t="s">
+      <c r="R5" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="S5" s="15" t="s">
+      <c r="S5" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="T5" s="15" t="s">
+      <c r="T5" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="U5" s="15" t="s">
+      <c r="U5" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="V5" s="15">
+      <c r="V5" s="10">
         <v>1</v>
       </c>
-      <c r="W5" s="18">
+      <c r="W5" s="13">
         <v>10</v>
       </c>
-      <c r="X5" s="19">
+      <c r="X5" s="14">
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="Y5" s="3"/>
@@ -5719,6 +5722,15 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="S2:T2"/>
     <mergeCell ref="N1:N3"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="L1:L3"/>
@@ -5733,15 +5745,6 @@
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="J1:J3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:X3"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
